--- a/data/trans_dic/P69$agotado-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2365597472565592</v>
+        <v>0.2348860819356201</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1453276943348961</v>
+        <v>0.1393631401884048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2303831209402272</v>
+        <v>0.206216181393867</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1445772519027599</v>
+        <v>0.106287543887276</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1005594849586347</v>
+        <v>0.1137614313917882</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2486772332274508</v>
+        <v>0.2551825363196075</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1302014062940322</v>
+        <v>0.1195255628724249</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2319050926809574</v>
+        <v>0.2407804045196002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2194169205990463</v>
+        <v>0.2202328569716241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2833041772658721</v>
+        <v>0.2591152967266998</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2097076452359738</v>
+        <v>0.1902711036455196</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5213032924554769</v>
+        <v>0.5263749495082356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7894082826075068</v>
+        <v>0.8244589465737571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7024980462531389</v>
+        <v>0.692821246105128</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5145858052770204</v>
+        <v>0.5039933552377656</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7149621439453345</v>
+        <v>0.7250177482788155</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7643513216878006</v>
+        <v>0.8318556815737792</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7701106982129796</v>
+        <v>0.7591229966626584</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4659441473689493</v>
+        <v>0.4928133727044162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6521944325925704</v>
+        <v>0.6773457851640536</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6457267293855503</v>
+        <v>0.6450826470953446</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7735220377318974</v>
+        <v>0.7488498729983254</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3322492541615675</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4138295178772446</v>
+        <v>0.4138295178772447</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3193957476177516</v>
@@ -833,7 +833,7 @@
         <v>0.3568113225425265</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4407334237063353</v>
+        <v>0.4407334237063352</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2686850203857016</v>
+        <v>0.26623891812154</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1636134367396534</v>
+        <v>0.1754501905281108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2652541008426485</v>
+        <v>0.2642653211821758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.290004420526415</v>
+        <v>0.2964068470203418</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1755282152022937</v>
+        <v>0.1831335670821984</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2380746606365625</v>
+        <v>0.2403184020748918</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.204673794199691</v>
+        <v>0.2077188216928122</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2860699893808034</v>
+        <v>0.2794535388535251</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2523699599051193</v>
+        <v>0.2577233673230364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2307163807175706</v>
+        <v>0.2287117243396237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2718553866626178</v>
+        <v>0.2815565326641857</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3349951572678631</v>
+        <v>0.3428645688171916</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4444928044837278</v>
+        <v>0.4255462839997408</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.366759217523261</v>
+        <v>0.373855215523358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4784273878234814</v>
+        <v>0.479880222520383</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6276953412920687</v>
+        <v>0.6232908143838184</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3817580355299547</v>
+        <v>0.3838598651867444</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4760410921186155</v>
+        <v>0.4931437390977748</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4695575094227871</v>
+        <v>0.4638273061142907</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5715629340330202</v>
+        <v>0.5697556984834815</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3893065709264657</v>
+        <v>0.3912005096155645</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3891983783529169</v>
+        <v>0.3942937439284762</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4489994312826722</v>
+        <v>0.4377601592673104</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5669243276096141</v>
+        <v>0.5602674892819068</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4392791395188786</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3761063452705197</v>
+        <v>0.3761063452705196</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3429030346193229</v>
@@ -969,7 +969,7 @@
         <v>0.398365038795491</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3192865868385014</v>
+        <v>0.3192865868385013</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.281193619009705</v>
+        <v>0.2706800626196405</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1980450750055825</v>
+        <v>0.194337639400828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2760299725139949</v>
+        <v>0.2898469063637498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1852872291705958</v>
+        <v>0.1893011715873956</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2234926952828374</v>
+        <v>0.2077520128710521</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2545440845513825</v>
+        <v>0.2501525238914889</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3287994803153602</v>
+        <v>0.3169392988713342</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2902705497825367</v>
+        <v>0.2886762012096973</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2787469543083195</v>
+        <v>0.2756929409429557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2471326007387385</v>
+        <v>0.2495904095840488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3194812683600302</v>
+        <v>0.3230843053896799</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2581821709455251</v>
+        <v>0.2528486576599406</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4505731429794889</v>
+        <v>0.4512332640271677</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3784551443631707</v>
+        <v>0.383488314830886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4688248419003577</v>
+        <v>0.4807823935734896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3691345174085505</v>
+        <v>0.369948653407423</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4439321400074718</v>
+        <v>0.4344000742393049</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4890720111276277</v>
+        <v>0.4815574693076514</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5612373394984795</v>
+        <v>0.5655532125153282</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4654226850048482</v>
+        <v>0.4674527488847869</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4149143550509071</v>
+        <v>0.4145792690140558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3946850052550338</v>
+        <v>0.3889534135316945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4705086543330674</v>
+        <v>0.4707402293628331</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3896476947612728</v>
+        <v>0.386056892629182</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3974388488414045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3873415213998462</v>
+        <v>0.3873415213998463</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3927055653228188</v>
@@ -1093,7 +1093,7 @@
         <v>0.4153255264396422</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4513940478775625</v>
+        <v>0.4513940478775626</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2978876376002331</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1885620425417638</v>
+        <v>0.1871412442667793</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1138776127640103</v>
+        <v>0.1180759539316319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3071895563069952</v>
+        <v>0.2897204069321216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2913773866444758</v>
+        <v>0.2942148513999368</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2433585473919926</v>
+        <v>0.2405783547760127</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1200978032128818</v>
+        <v>0.1124594223559127</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2886063260277554</v>
+        <v>0.2839986466182125</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.385001633727479</v>
+        <v>0.3815988112729072</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2188787342853615</v>
+        <v>0.2250741582315271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.147288738219027</v>
+        <v>0.1426563978318303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3155835090863598</v>
+        <v>0.3141233884521756</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3584052974863565</v>
+        <v>0.3639257741905095</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3735782247185775</v>
+        <v>0.3669743931782186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2815631372169082</v>
+        <v>0.2822760515806345</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5251509554343633</v>
+        <v>0.5173546182317592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4872637346772364</v>
+        <v>0.4842228447531098</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5770317098381822</v>
+        <v>0.56443299892895</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4020981714975584</v>
+        <v>0.4045643821411771</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.551701311324318</v>
+        <v>0.5561902355553517</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5229688605375273</v>
+        <v>0.5250951484645882</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3787985675016708</v>
+        <v>0.3802514988422339</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2922702653344755</v>
+        <v>0.2930884999704266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4861257672686556</v>
+        <v>0.4814572542946423</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4809529221748829</v>
+        <v>0.4793065898118685</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4482716353033322</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.459691976761345</v>
+        <v>0.4596919767613449</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1952601555585917</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0809211575966003</v>
+        <v>0.08124865798561778</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04894343006498068</v>
+        <v>0.04918001825448221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2893273256746834</v>
+        <v>0.2951928524300891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2481117072619568</v>
+        <v>0.2502181616182236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07223846596486902</v>
+        <v>0.07389643494660249</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2196816864712951</v>
+        <v>0.2133971616574753</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2639284151401862</v>
+        <v>0.2660159874719932</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3593974096374963</v>
+        <v>0.3668980831213741</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1121872370175879</v>
+        <v>0.1045143448822597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1424711447436567</v>
+        <v>0.1278460911531709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3311771023826595</v>
+        <v>0.3357746481638333</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3214055670453186</v>
+        <v>0.3206319159695653</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.304977341926824</v>
+        <v>0.2999403818260484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2538557548744733</v>
+        <v>0.2522188848477488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5805731598754854</v>
+        <v>0.5969087917388051</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4570056517543393</v>
+        <v>0.4562720048098745</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.571795313792839</v>
+        <v>0.5775844106048628</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6296933265708955</v>
+        <v>0.6387667001626015</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6452051864686023</v>
+        <v>0.6561577073046274</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5586847898875189</v>
+        <v>0.5689088640503771</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3201254839877635</v>
+        <v>0.3116628322722449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3570291312100953</v>
+        <v>0.3569070106811926</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5525754119403021</v>
+        <v>0.5554831651943574</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4755760984601643</v>
+        <v>0.4650563121601856</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3345286104487488</v>
+        <v>0.3388347072307031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3125884798442997</v>
+        <v>0.3154996244042568</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.373950687187419</v>
+        <v>0.3803615760881017</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2403286832602875</v>
+        <v>0.2436748400029018</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3599112274233274</v>
+        <v>0.3569312494696423</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.353192977467069</v>
+        <v>0.3564550804201865</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4472781426794449</v>
+        <v>0.4397335973822942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4285503202460889</v>
+        <v>0.4279347521826236</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4730438978071196</v>
+        <v>0.4780508569766415</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3237690406722139</v>
+        <v>0.3235836307958318</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.442823257143179</v>
+        <v>0.439856719785752</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4254943478501888</v>
+        <v>0.4320637545183581</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10922</v>
+        <v>10845</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1501</v>
+        <v>1439</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3951</v>
+        <v>3537</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2871</v>
+        <v>2111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1011</v>
+        <v>1144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2895</v>
+        <v>2971</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2070</v>
+        <v>1900</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15313</v>
+        <v>15899</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4472</v>
+        <v>4489</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8157</v>
+        <v>7461</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5267</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24070</v>
+        <v>24304</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8152</v>
+        <v>8514</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12049</v>
+        <v>11883</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>9218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10219</v>
+        <v>10009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7190</v>
+        <v>7291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8899</v>
+        <v>9685</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12244</v>
+        <v>12069</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30767</v>
+        <v>32541</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13294</v>
+        <v>13806</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18593</v>
+        <v>18575</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19429</v>
+        <v>18809</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>38231</v>
+        <v>37883</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13947</v>
+        <v>14956</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21637</v>
+        <v>21557</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20182</v>
+        <v>20628</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13915</v>
+        <v>14518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15978</v>
+        <v>16128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9475</v>
+        <v>9616</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14736</v>
+        <v>14395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>55917</v>
+        <v>57103</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>35151</v>
+        <v>34846</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>34760</v>
+        <v>36001</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40570</v>
+        <v>41523</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63247</v>
+        <v>60551</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31265</v>
+        <v>31870</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39026</v>
+        <v>39145</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43683</v>
+        <v>43377</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30264</v>
+        <v>30430</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31948</v>
+        <v>33096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21736</v>
+        <v>21471</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29442</v>
+        <v>29349</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>86257</v>
+        <v>86677</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>59297</v>
+        <v>60074</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57410</v>
+        <v>55973</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68657</v>
+        <v>67851</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35438</v>
+        <v>34113</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19384</v>
+        <v>19021</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31225</v>
+        <v>32788</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20377</v>
+        <v>20819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15654</v>
+        <v>14551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18488</v>
+        <v>18169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23495</v>
+        <v>22648</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25149</v>
+        <v>25011</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54654</v>
+        <v>54055</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>42138</v>
+        <v>42557</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58970</v>
+        <v>59635</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50763</v>
+        <v>49715</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56785</v>
+        <v>56868</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37042</v>
+        <v>37534</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53035</v>
+        <v>54388</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40596</v>
+        <v>40686</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31094</v>
+        <v>30426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35522</v>
+        <v>34976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>40105</v>
+        <v>40413</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40325</v>
+        <v>40501</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81352</v>
+        <v>81287</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67297</v>
+        <v>66319</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>86847</v>
+        <v>86890</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76612</v>
+        <v>75906</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20951</v>
+        <v>20793</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10137</v>
+        <v>10511</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28086</v>
+        <v>26489</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34562</v>
+        <v>34899</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9013</v>
+        <v>8910</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4839</v>
+        <v>4532</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16193</v>
+        <v>15934</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48437</v>
+        <v>48009</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32426</v>
+        <v>33344</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19047</v>
+        <v>18448</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>46560</v>
+        <v>46344</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>87604</v>
+        <v>88953</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41508</v>
+        <v>40775</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25065</v>
+        <v>25128</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48014</v>
+        <v>47301</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57797</v>
+        <v>57437</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21372</v>
+        <v>20905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16203</v>
+        <v>16302</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30954</v>
+        <v>31206</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65795</v>
+        <v>66062</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56118</v>
+        <v>56333</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37796</v>
+        <v>37902</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>71721</v>
+        <v>71032</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>117557</v>
+        <v>117155</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3713</v>
+        <v>3728</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2047</v>
+        <v>2057</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12976</v>
+        <v>13239</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17636</v>
+        <v>17785</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5400</v>
+        <v>5246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8129</v>
+        <v>8193</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22199</v>
+        <v>22663</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6708</v>
+        <v>6249</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>9462</v>
+        <v>8491</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25052</v>
+        <v>25400</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>42697</v>
+        <v>42595</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13993</v>
+        <v>13762</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10620</v>
+        <v>10551</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26038</v>
+        <v>26770</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32484</v>
+        <v>32431</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7953</v>
+        <v>8034</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15479</v>
+        <v>15702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19872</v>
+        <v>20209</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34509</v>
+        <v>35140</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19141</v>
+        <v>18635</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23712</v>
+        <v>23704</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>41800</v>
+        <v>42020</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>63178</v>
+        <v>61781</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>116457</v>
+        <v>117956</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>118309</v>
+        <v>119411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>127752</v>
+        <v>129943</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>129533</v>
+        <v>131336</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>203141</v>
+        <v>201459</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>254339</v>
+        <v>256688</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>155707</v>
+        <v>153081</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>162199</v>
+        <v>161966</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>161606</v>
+        <v>163316</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>174505</v>
+        <v>174405</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>249938</v>
+        <v>248263</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>306404</v>
+        <v>311134</v>
       </c>
     </row>
     <row r="28">
